--- a/Quiescence_raw.xlsx
+++ b/Quiescence_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinds02/Desktop/Quiescence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinds02/Desktop/GITHUB/Draft_Quiescence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8E67B-6EB2-4C45-BA9B-62B34C9920C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263F4D4-5604-A948-B031-36C188214EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="760" windowWidth="16820" windowHeight="14320" xr2:uid="{A1641D38-9828-CC4A-9480-C6A7E189825B}"/>
   </bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>depth</t>
-  </si>
-  <si>
-    <t>ecotype</t>
   </si>
   <si>
     <t>rating</t>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>JG*3</t>
+  </si>
+  <si>
+    <t>morphotype</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60BB83-0BD8-644B-B857-9BAC980EE0E2}">
   <dimension ref="A1:N321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,31 +605,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -640,10 +640,10 @@
         <v>2.25</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>44</v>
@@ -656,7 +656,7 @@
         <v>41.75</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>11.649075</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -684,10 +684,10 @@
         <v>2.25</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>42</v>
@@ -700,7 +700,7 @@
         <v>39.75</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>5.9759849999999997</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -728,10 +728,10 @@
         <v>2.25</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>42</v>
@@ -744,7 +744,7 @@
         <v>39.75</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -761,10 +761,10 @@
         <v>2.25</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -777,7 +777,7 @@
         <v>39.75</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>2.25</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>41</v>
@@ -810,7 +810,7 @@
         <v>38.75</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>2.25</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>43</v>
@@ -843,7 +843,7 @@
         <v>40.75</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -860,10 +860,10 @@
         <v>2.25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>42</v>
@@ -876,7 +876,7 @@
         <v>39.75</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -893,10 +893,10 @@
         <v>2.25</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>42</v>
@@ -909,7 +909,7 @@
         <v>39.75</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -926,10 +926,10 @@
         <v>2.25</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>42</v>
@@ -942,7 +942,7 @@
         <v>39.75</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>41</v>
@@ -975,7 +975,7 @@
         <v>38.75</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>2.25</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>44</v>
@@ -1008,7 +1008,7 @@
         <v>41.75</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1025,10 +1025,10 @@
         <v>2.25</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>44</v>
@@ -1041,7 +1041,7 @@
         <v>41.75</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>2.25</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>44</v>
@@ -1074,7 +1074,7 @@
         <v>41.75</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>2.25</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>44</v>
@@ -1107,7 +1107,7 @@
         <v>41.75</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1124,10 +1124,10 @@
         <v>2.25</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>44</v>
@@ -1140,7 +1140,7 @@
         <v>41.75</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>2.25</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>44</v>
@@ -1173,7 +1173,7 @@
         <v>41.75</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1190,10 +1190,10 @@
         <v>2.25</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>38</v>
@@ -1206,7 +1206,7 @@
         <v>35.75</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         <v>2.25</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>38</v>
@@ -1239,7 +1239,7 @@
         <v>35.75</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1256,10 +1256,10 @@
         <v>2.25</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>38</v>
@@ -1272,7 +1272,7 @@
         <v>35.75</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         <v>2.25</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>39</v>
@@ -1305,7 +1305,7 @@
         <v>36.75</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1322,10 +1322,10 @@
         <v>2.5</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -1338,7 +1338,7 @@
         <v>37.5</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1355,10 +1355,10 @@
         <v>2.5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>39</v>
@@ -1371,7 +1371,7 @@
         <v>36.5</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1388,10 +1388,10 @@
         <v>2.5</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -1404,7 +1404,7 @@
         <v>37.5</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1421,10 +1421,10 @@
         <v>2.5</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>41</v>
@@ -1437,7 +1437,7 @@
         <v>38.5</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1454,10 +1454,10 @@
         <v>2.5</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -1470,7 +1470,7 @@
         <v>37.5</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1487,10 +1487,10 @@
         <v>2.5</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -1503,7 +1503,7 @@
         <v>37.5</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1520,10 +1520,10 @@
         <v>2.5</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>39</v>
@@ -1536,7 +1536,7 @@
         <v>36.5</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -1553,10 +1553,10 @@
         <v>2.5</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>40</v>
@@ -1569,7 +1569,7 @@
         <v>37.5</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -1586,10 +1586,10 @@
         <v>2.5</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>41</v>
@@ -1602,7 +1602,7 @@
         <v>38.5</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1619,10 +1619,10 @@
         <v>2.5</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>40</v>
@@ -1635,7 +1635,7 @@
         <v>37.5</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -1652,10 +1652,10 @@
         <v>2.5</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>38</v>
@@ -1668,7 +1668,7 @@
         <v>35.5</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1685,10 +1685,10 @@
         <v>2.5</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>38</v>
@@ -1701,7 +1701,7 @@
         <v>35.5</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1718,10 +1718,10 @@
         <v>2.5</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>35</v>
@@ -1734,7 +1734,7 @@
         <v>32.5</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -1751,10 +1751,10 @@
         <v>2.5</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>39</v>
@@ -1767,7 +1767,7 @@
         <v>36.5</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1784,10 +1784,10 @@
         <v>2.5</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>40</v>
@@ -1800,7 +1800,7 @@
         <v>37.5</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1817,10 +1817,10 @@
         <v>2.5</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -1833,7 +1833,7 @@
         <v>37.5</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1850,10 +1850,10 @@
         <v>2.5</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>38</v>
@@ -1866,7 +1866,7 @@
         <v>35.5</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -1883,10 +1883,10 @@
         <v>2.5</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>39</v>
@@ -1899,7 +1899,7 @@
         <v>36.5</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -1916,10 +1916,10 @@
         <v>2.5</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1932,7 +1932,7 @@
         <v>36.5</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -1949,10 +1949,10 @@
         <v>2.5</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -1965,7 +1965,7 @@
         <v>35.5</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>37</v>
@@ -1998,7 +1998,7 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>37</v>
@@ -2032,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>37</v>
@@ -2066,7 +2066,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>38</v>
@@ -2100,7 +2100,7 @@
         <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>38</v>
@@ -2134,7 +2134,7 @@
         <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -2152,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>37</v>
@@ -2168,7 +2168,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47">
         <v>3</v>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>37</v>
@@ -2202,7 +2202,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>37</v>
@@ -2236,7 +2236,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>38</v>
@@ -2270,7 +2270,7 @@
         <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>38</v>
@@ -2304,7 +2304,7 @@
         <v>38</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>38</v>
@@ -2338,7 +2338,7 @@
         <v>38</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -2356,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>38</v>
@@ -2372,7 +2372,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -2390,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>38</v>
@@ -2406,7 +2406,7 @@
         <v>38</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>38</v>
@@ -2440,7 +2440,7 @@
         <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>38</v>
@@ -2474,7 +2474,7 @@
         <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -2492,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>37</v>
@@ -2508,7 +2508,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>38</v>
@@ -2542,7 +2542,7 @@
         <v>38</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>37</v>
@@ -2576,7 +2576,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>37</v>
@@ -2610,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>37</v>
@@ -2644,7 +2644,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -2662,10 +2662,10 @@
         <v>0.75</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>44</v>
@@ -2678,7 +2678,7 @@
         <v>43.25</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -2696,10 +2696,10 @@
         <v>0.75</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>44</v>
@@ -2712,7 +2712,7 @@
         <v>43.25</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -2730,10 +2730,10 @@
         <v>0.75</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>44</v>
@@ -2746,7 +2746,7 @@
         <v>43.25</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -2764,10 +2764,10 @@
         <v>0.75</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>45</v>
@@ -2780,7 +2780,7 @@
         <v>44.25</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -2798,10 +2798,10 @@
         <v>0.75</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <v>44</v>
@@ -2814,7 +2814,7 @@
         <v>43.25</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -2832,10 +2832,10 @@
         <v>0.75</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>44</v>
@@ -2848,7 +2848,7 @@
         <v>43.25</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -2866,10 +2866,10 @@
         <v>0.75</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>44</v>
@@ -2882,7 +2882,7 @@
         <v>43.25</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68">
         <v>4</v>
@@ -2900,10 +2900,10 @@
         <v>0.75</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>44</v>
@@ -2916,7 +2916,7 @@
         <v>43.25</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -2934,10 +2934,10 @@
         <v>0.75</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>45</v>
@@ -2950,7 +2950,7 @@
         <v>44.25</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -2968,10 +2968,10 @@
         <v>0.75</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>44</v>
@@ -2984,7 +2984,7 @@
         <v>43.25</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -3002,10 +3002,10 @@
         <v>0.75</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>47</v>
@@ -3018,7 +3018,7 @@
         <v>46.25</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -3036,10 +3036,10 @@
         <v>0.75</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>46</v>
@@ -3052,7 +3052,7 @@
         <v>45.25</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -3070,10 +3070,10 @@
         <v>0.75</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>45</v>
@@ -3086,7 +3086,7 @@
         <v>44.25</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -3104,10 +3104,10 @@
         <v>0.75</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>45</v>
@@ -3120,7 +3120,7 @@
         <v>44.25</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -3138,10 +3138,10 @@
         <v>0.75</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>45</v>
@@ -3154,7 +3154,7 @@
         <v>44.25</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76">
         <v>4</v>
@@ -3172,10 +3172,10 @@
         <v>0.75</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>47</v>
@@ -3188,7 +3188,7 @@
         <v>46.25</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -3206,10 +3206,10 @@
         <v>0.75</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>45</v>
@@ -3222,7 +3222,7 @@
         <v>44.25</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -3240,10 +3240,10 @@
         <v>0.75</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79">
         <v>45</v>
@@ -3256,7 +3256,7 @@
         <v>44.25</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -3274,10 +3274,10 @@
         <v>0.75</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>47</v>
@@ -3290,7 +3290,7 @@
         <v>46.25</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -3308,10 +3308,10 @@
         <v>0.75</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <v>46</v>
@@ -3324,7 +3324,7 @@
         <v>45.25</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81">
         <v>4</v>
@@ -3342,10 +3342,10 @@
         <v>0.25</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <v>38</v>
@@ -3358,7 +3358,7 @@
         <v>37.75</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I82">
         <v>5</v>
@@ -3376,10 +3376,10 @@
         <v>0.25</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>38</v>
@@ -3392,7 +3392,7 @@
         <v>37.75</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I83">
         <v>5</v>
@@ -3410,10 +3410,10 @@
         <v>0.25</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <v>39</v>
@@ -3426,7 +3426,7 @@
         <v>38.75</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I84">
         <v>5</v>
@@ -3444,10 +3444,10 @@
         <v>0.25</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -3460,7 +3460,7 @@
         <v>39.75</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I85">
         <v>5</v>
@@ -3478,10 +3478,10 @@
         <v>0.25</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86">
         <v>40</v>
@@ -3494,7 +3494,7 @@
         <v>39.75</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I86">
         <v>5</v>
@@ -3512,10 +3512,10 @@
         <v>0.25</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>38</v>
@@ -3528,7 +3528,7 @@
         <v>37.75</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I87">
         <v>5</v>
@@ -3546,10 +3546,10 @@
         <v>0.25</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88">
         <v>38</v>
@@ -3562,7 +3562,7 @@
         <v>37.75</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88">
         <v>5</v>
@@ -3580,10 +3580,10 @@
         <v>0.25</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>39</v>
@@ -3596,7 +3596,7 @@
         <v>38.75</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I89">
         <v>5</v>
@@ -3614,10 +3614,10 @@
         <v>0.25</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90">
         <v>40</v>
@@ -3630,7 +3630,7 @@
         <v>39.75</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I90">
         <v>5</v>
@@ -3648,10 +3648,10 @@
         <v>0.25</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>40</v>
@@ -3664,7 +3664,7 @@
         <v>39.75</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I91">
         <v>5</v>
@@ -3682,10 +3682,10 @@
         <v>0.25</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>40</v>
@@ -3698,7 +3698,7 @@
         <v>39.75</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -3716,10 +3716,10 @@
         <v>0.25</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>39</v>
@@ -3732,7 +3732,7 @@
         <v>38.75</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I93">
         <v>5</v>
@@ -3750,10 +3750,10 @@
         <v>0.25</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94">
         <v>39</v>
@@ -3766,7 +3766,7 @@
         <v>38.75</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I94">
         <v>5</v>
@@ -3784,10 +3784,10 @@
         <v>0.25</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>38</v>
@@ -3800,7 +3800,7 @@
         <v>37.75</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I95">
         <v>5</v>
@@ -3818,10 +3818,10 @@
         <v>0.25</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96">
         <v>38</v>
@@ -3834,7 +3834,7 @@
         <v>37.75</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I96">
         <v>5</v>
@@ -3852,10 +3852,10 @@
         <v>0.25</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <v>38</v>
@@ -3868,7 +3868,7 @@
         <v>37.75</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I97">
         <v>5</v>
@@ -3886,10 +3886,10 @@
         <v>0.25</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>36</v>
@@ -3902,7 +3902,7 @@
         <v>35.75</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98">
         <v>5</v>
@@ -3920,10 +3920,10 @@
         <v>0.25</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>37</v>
@@ -3936,7 +3936,7 @@
         <v>36.75</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I99">
         <v>5</v>
@@ -3954,10 +3954,10 @@
         <v>0.25</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>38</v>
@@ -3970,7 +3970,7 @@
         <v>37.75</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I100">
         <v>5</v>
@@ -3988,10 +3988,10 @@
         <v>0.25</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101">
         <v>37</v>
@@ -4004,7 +4004,7 @@
         <v>36.75</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I101">
         <v>5</v>
@@ -4022,10 +4022,10 @@
         <v>1.25</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <v>39</v>
@@ -4038,7 +4038,7 @@
         <v>37.75</v>
       </c>
       <c r="H102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I102">
         <v>6</v>
@@ -4056,10 +4056,10 @@
         <v>1.25</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>38</v>
@@ -4072,7 +4072,7 @@
         <v>36.75</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I103">
         <v>6</v>
@@ -4090,10 +4090,10 @@
         <v>1.25</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104">
         <v>37</v>
@@ -4106,7 +4106,7 @@
         <v>35.75</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I104">
         <v>6</v>
@@ -4124,10 +4124,10 @@
         <v>1.25</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105">
         <v>38</v>
@@ -4140,7 +4140,7 @@
         <v>36.75</v>
       </c>
       <c r="H105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I105">
         <v>6</v>
@@ -4158,10 +4158,10 @@
         <v>1.25</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <v>37</v>
@@ -4174,7 +4174,7 @@
         <v>35.75</v>
       </c>
       <c r="H106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I106">
         <v>6</v>
@@ -4192,10 +4192,10 @@
         <v>1.25</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>38</v>
@@ -4208,7 +4208,7 @@
         <v>36.75</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I107">
         <v>6</v>
@@ -4226,10 +4226,10 @@
         <v>1.25</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108">
         <v>38</v>
@@ -4242,7 +4242,7 @@
         <v>36.75</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I108">
         <v>6</v>
@@ -4260,10 +4260,10 @@
         <v>1.25</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109">
         <v>38</v>
@@ -4276,7 +4276,7 @@
         <v>36.75</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I109">
         <v>6</v>
@@ -4294,10 +4294,10 @@
         <v>1.25</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110">
         <v>38</v>
@@ -4310,7 +4310,7 @@
         <v>36.75</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I110">
         <v>6</v>
@@ -4328,10 +4328,10 @@
         <v>1.25</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>39</v>
@@ -4344,7 +4344,7 @@
         <v>37.75</v>
       </c>
       <c r="H111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I111">
         <v>6</v>
@@ -4362,10 +4362,10 @@
         <v>1.25</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <v>39</v>
@@ -4378,7 +4378,7 @@
         <v>37.75</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I112">
         <v>6</v>
@@ -4396,10 +4396,10 @@
         <v>1.25</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>38</v>
@@ -4412,7 +4412,7 @@
         <v>36.75</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I113">
         <v>6</v>
@@ -4430,10 +4430,10 @@
         <v>1.25</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <v>37</v>
@@ -4446,7 +4446,7 @@
         <v>35.75</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I114">
         <v>6</v>
@@ -4464,10 +4464,10 @@
         <v>1.25</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>38</v>
@@ -4480,7 +4480,7 @@
         <v>36.75</v>
       </c>
       <c r="H115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I115">
         <v>6</v>
@@ -4498,10 +4498,10 @@
         <v>1.25</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>37</v>
@@ -4514,7 +4514,7 @@
         <v>35.75</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I116">
         <v>6</v>
@@ -4532,10 +4532,10 @@
         <v>1.25</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>38</v>
@@ -4548,7 +4548,7 @@
         <v>36.75</v>
       </c>
       <c r="H117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I117">
         <v>6</v>
@@ -4566,10 +4566,10 @@
         <v>1.25</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118">
         <v>38</v>
@@ -4582,7 +4582,7 @@
         <v>36.75</v>
       </c>
       <c r="H118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I118">
         <v>6</v>
@@ -4600,10 +4600,10 @@
         <v>1.25</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>38</v>
@@ -4616,7 +4616,7 @@
         <v>36.75</v>
       </c>
       <c r="H119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I119">
         <v>6</v>
@@ -4634,10 +4634,10 @@
         <v>1.25</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120">
         <v>38</v>
@@ -4650,7 +4650,7 @@
         <v>36.75</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I120">
         <v>6</v>
@@ -4668,10 +4668,10 @@
         <v>1.25</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>39</v>
@@ -4684,7 +4684,7 @@
         <v>37.75</v>
       </c>
       <c r="H121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I121">
         <v>6</v>
@@ -4702,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122">
         <v>37</v>
@@ -4718,7 +4718,7 @@
         <v>36</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I122">
         <v>7</v>
@@ -4736,10 +4736,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>36</v>
@@ -4752,7 +4752,7 @@
         <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I123">
         <v>7</v>
@@ -4770,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124">
         <v>38</v>
@@ -4786,7 +4786,7 @@
         <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I124">
         <v>7</v>
@@ -4804,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125">
         <v>38</v>
@@ -4820,7 +4820,7 @@
         <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I125">
         <v>7</v>
@@ -4838,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126">
         <v>38</v>
@@ -4854,7 +4854,7 @@
         <v>37</v>
       </c>
       <c r="H126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I126">
         <v>7</v>
@@ -4872,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>36</v>
@@ -4888,7 +4888,7 @@
         <v>35</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I127">
         <v>7</v>
@@ -4906,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128">
         <v>37</v>
@@ -4922,7 +4922,7 @@
         <v>36</v>
       </c>
       <c r="H128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I128">
         <v>7</v>
@@ -4940,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129">
         <v>36</v>
@@ -4956,7 +4956,7 @@
         <v>35</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I129">
         <v>7</v>
@@ -4974,10 +4974,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>39</v>
@@ -4990,7 +4990,7 @@
         <v>38</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I130">
         <v>7</v>
@@ -5008,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131">
         <v>39</v>
@@ -5024,7 +5024,7 @@
         <v>38</v>
       </c>
       <c r="H131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I131">
         <v>7</v>
@@ -5042,10 +5042,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132">
         <v>38</v>
@@ -5058,7 +5058,7 @@
         <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I132">
         <v>7</v>
@@ -5076,10 +5076,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133">
         <v>38</v>
@@ -5092,7 +5092,7 @@
         <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I133">
         <v>7</v>
@@ -5110,10 +5110,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134">
         <v>39</v>
@@ -5126,7 +5126,7 @@
         <v>38</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I134">
         <v>7</v>
@@ -5144,10 +5144,10 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135">
         <v>39</v>
@@ -5160,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I135">
         <v>7</v>
@@ -5178,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <v>38</v>
@@ -5194,7 +5194,7 @@
         <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I136">
         <v>7</v>
@@ -5212,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>38</v>
@@ -5228,7 +5228,7 @@
         <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I137">
         <v>7</v>
@@ -5246,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>38</v>
@@ -5262,7 +5262,7 @@
         <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I138">
         <v>7</v>
@@ -5280,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>39</v>
@@ -5296,7 +5296,7 @@
         <v>38</v>
       </c>
       <c r="H139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I139">
         <v>7</v>
@@ -5314,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>39</v>
@@ -5330,7 +5330,7 @@
         <v>38</v>
       </c>
       <c r="H140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I140">
         <v>7</v>
@@ -5348,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E141">
         <v>38</v>
@@ -5364,7 +5364,7 @@
         <v>37</v>
       </c>
       <c r="H141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I141">
         <v>7</v>
@@ -5382,10 +5382,10 @@
         <v>1.5</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142">
         <v>37</v>
@@ -5398,7 +5398,7 @@
         <v>35.5</v>
       </c>
       <c r="H142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I142">
         <v>8</v>
@@ -5416,10 +5416,10 @@
         <v>1.5</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143">
         <v>37</v>
@@ -5432,7 +5432,7 @@
         <v>35.5</v>
       </c>
       <c r="H143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I143">
         <v>8</v>
@@ -5450,10 +5450,10 @@
         <v>1.5</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>36</v>
@@ -5466,7 +5466,7 @@
         <v>34.5</v>
       </c>
       <c r="H144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I144">
         <v>8</v>
@@ -5484,10 +5484,10 @@
         <v>1.5</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145">
         <v>36</v>
@@ -5500,7 +5500,7 @@
         <v>34.5</v>
       </c>
       <c r="H145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I145">
         <v>8</v>
@@ -5518,10 +5518,10 @@
         <v>1.5</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146">
         <v>37</v>
@@ -5534,7 +5534,7 @@
         <v>35.5</v>
       </c>
       <c r="H146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I146">
         <v>8</v>
@@ -5552,10 +5552,10 @@
         <v>1.5</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147">
         <v>37</v>
@@ -5568,7 +5568,7 @@
         <v>35.5</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I147">
         <v>8</v>
@@ -5586,10 +5586,10 @@
         <v>1.5</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>36</v>
@@ -5602,7 +5602,7 @@
         <v>34.5</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I148">
         <v>8</v>
@@ -5620,10 +5620,10 @@
         <v>1.5</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149">
         <v>36</v>
@@ -5636,7 +5636,7 @@
         <v>34.5</v>
       </c>
       <c r="H149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I149">
         <v>8</v>
@@ -5654,10 +5654,10 @@
         <v>1.5</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>37</v>
@@ -5670,7 +5670,7 @@
         <v>35.5</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I150">
         <v>8</v>
@@ -5688,10 +5688,10 @@
         <v>1.5</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E151">
         <v>36</v>
@@ -5704,7 +5704,7 @@
         <v>34.5</v>
       </c>
       <c r="H151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I151">
         <v>8</v>
@@ -5722,10 +5722,10 @@
         <v>1.5</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <v>37</v>
@@ -5738,7 +5738,7 @@
         <v>35.5</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I152">
         <v>8</v>
@@ -5756,10 +5756,10 @@
         <v>1.5</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153">
         <v>38</v>
@@ -5772,7 +5772,7 @@
         <v>36.5</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -5790,10 +5790,10 @@
         <v>1.5</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154">
         <v>38</v>
@@ -5806,7 +5806,7 @@
         <v>36.5</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -5824,10 +5824,10 @@
         <v>1.5</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155">
         <v>38</v>
@@ -5840,7 +5840,7 @@
         <v>36.5</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I155">
         <v>8</v>
@@ -5858,10 +5858,10 @@
         <v>1.5</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156">
         <v>39</v>
@@ -5874,7 +5874,7 @@
         <v>37.5</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I156">
         <v>8</v>
@@ -5892,10 +5892,10 @@
         <v>1.5</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E157">
         <v>37</v>
@@ -5908,7 +5908,7 @@
         <v>35.5</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I157">
         <v>8</v>
@@ -5926,10 +5926,10 @@
         <v>1.5</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E158">
         <v>38</v>
@@ -5942,7 +5942,7 @@
         <v>36.5</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -5960,10 +5960,10 @@
         <v>1.5</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>38</v>
@@ -5976,7 +5976,7 @@
         <v>36.5</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I159">
         <v>8</v>
@@ -5994,10 +5994,10 @@
         <v>1.5</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E160">
         <v>38</v>
@@ -6010,7 +6010,7 @@
         <v>36.5</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I160">
         <v>8</v>
@@ -6028,10 +6028,10 @@
         <v>1.5</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E161">
         <v>39</v>
@@ -6044,7 +6044,7 @@
         <v>37.5</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I161">
         <v>8</v>
@@ -6062,10 +6062,10 @@
         <v>2.25</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162">
         <v>20</v>
@@ -6078,7 +6078,7 @@
         <v>17.75</v>
       </c>
       <c r="H162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6095,10 +6095,10 @@
         <v>2.25</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>19</v>
@@ -6111,7 +6111,7 @@
         <v>16.75</v>
       </c>
       <c r="H163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -6128,10 +6128,10 @@
         <v>2.25</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164">
         <v>19</v>
@@ -6144,7 +6144,7 @@
         <v>16.75</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -6161,10 +6161,10 @@
         <v>2.25</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165">
         <v>22</v>
@@ -6177,7 +6177,7 @@
         <v>19.75</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6194,10 +6194,10 @@
         <v>2.25</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166">
         <v>22</v>
@@ -6210,7 +6210,7 @@
         <v>19.75</v>
       </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -6227,10 +6227,10 @@
         <v>2.25</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E167">
         <v>20</v>
@@ -6243,7 +6243,7 @@
         <v>17.75</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -6260,10 +6260,10 @@
         <v>2.25</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E168">
         <v>19</v>
@@ -6276,7 +6276,7 @@
         <v>16.75</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -6293,10 +6293,10 @@
         <v>2.25</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E169">
         <v>19</v>
@@ -6309,7 +6309,7 @@
         <v>16.75</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -6326,10 +6326,10 @@
         <v>2.25</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E170">
         <v>22</v>
@@ -6342,7 +6342,7 @@
         <v>19.75</v>
       </c>
       <c r="H170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -6359,10 +6359,10 @@
         <v>2.25</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E171">
         <v>22</v>
@@ -6375,7 +6375,7 @@
         <v>19.75</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -6392,10 +6392,10 @@
         <v>2.25</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172">
         <v>23</v>
@@ -6408,7 +6408,7 @@
         <v>20.75</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -6425,10 +6425,10 @@
         <v>2.25</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173">
         <v>23</v>
@@ -6441,7 +6441,7 @@
         <v>20.75</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -6458,10 +6458,10 @@
         <v>2.25</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174">
         <v>23</v>
@@ -6474,7 +6474,7 @@
         <v>20.75</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -6491,10 +6491,10 @@
         <v>2.25</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175">
         <v>23</v>
@@ -6507,7 +6507,7 @@
         <v>20.75</v>
       </c>
       <c r="H175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -6524,10 +6524,10 @@
         <v>2.25</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>22</v>
@@ -6540,7 +6540,7 @@
         <v>19.75</v>
       </c>
       <c r="H176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -6557,10 +6557,10 @@
         <v>2.25</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E177">
         <v>22</v>
@@ -6573,7 +6573,7 @@
         <v>19.75</v>
       </c>
       <c r="H177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -6590,10 +6590,10 @@
         <v>2.25</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E178">
         <v>22</v>
@@ -6606,7 +6606,7 @@
         <v>19.75</v>
       </c>
       <c r="H178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -6623,10 +6623,10 @@
         <v>2.25</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E179">
         <v>22</v>
@@ -6639,7 +6639,7 @@
         <v>19.75</v>
       </c>
       <c r="H179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -6656,10 +6656,10 @@
         <v>2.25</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>23</v>
@@ -6672,7 +6672,7 @@
         <v>20.75</v>
       </c>
       <c r="H180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -6689,10 +6689,10 @@
         <v>2.25</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E181">
         <v>24</v>
@@ -6705,7 +6705,7 @@
         <v>21.75</v>
       </c>
       <c r="H181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -6722,10 +6722,10 @@
         <v>2.5</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E182">
         <v>23</v>
@@ -6738,7 +6738,7 @@
         <v>20.5</v>
       </c>
       <c r="H182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I182">
         <v>2</v>
@@ -6755,10 +6755,10 @@
         <v>2.5</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183">
         <v>22</v>
@@ -6771,7 +6771,7 @@
         <v>19.5</v>
       </c>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -6788,10 +6788,10 @@
         <v>2.5</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E184">
         <v>22</v>
@@ -6804,7 +6804,7 @@
         <v>19.5</v>
       </c>
       <c r="H184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -6821,10 +6821,10 @@
         <v>2.5</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E185">
         <v>23</v>
@@ -6837,7 +6837,7 @@
         <v>20.5</v>
       </c>
       <c r="H185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -6854,10 +6854,10 @@
         <v>2.5</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186">
         <v>23</v>
@@ -6870,7 +6870,7 @@
         <v>20.5</v>
       </c>
       <c r="H186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -6887,10 +6887,10 @@
         <v>2.5</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E187">
         <v>23</v>
@@ -6903,7 +6903,7 @@
         <v>20.5</v>
       </c>
       <c r="H187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I187">
         <v>2</v>
@@ -6920,10 +6920,10 @@
         <v>2.5</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E188">
         <v>22</v>
@@ -6936,7 +6936,7 @@
         <v>19.5</v>
       </c>
       <c r="H188" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -6953,10 +6953,10 @@
         <v>2.5</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>22</v>
@@ -6969,7 +6969,7 @@
         <v>19.5</v>
       </c>
       <c r="H189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -6986,10 +6986,10 @@
         <v>2.5</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -7002,7 +7002,7 @@
         <v>20.5</v>
       </c>
       <c r="H190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -7019,10 +7019,10 @@
         <v>2.5</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E191">
         <v>23</v>
@@ -7035,7 +7035,7 @@
         <v>20.5</v>
       </c>
       <c r="H191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -7052,10 +7052,10 @@
         <v>2.5</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192">
         <v>22</v>
@@ -7068,7 +7068,7 @@
         <v>19.5</v>
       </c>
       <c r="H192" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -7085,10 +7085,10 @@
         <v>2.5</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193">
         <v>21</v>
@@ -7101,7 +7101,7 @@
         <v>18.5</v>
       </c>
       <c r="H193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -7118,10 +7118,10 @@
         <v>2.5</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194">
         <v>22</v>
@@ -7134,7 +7134,7 @@
         <v>19.5</v>
       </c>
       <c r="H194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -7151,10 +7151,10 @@
         <v>2.5</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195">
         <v>23</v>
@@ -7167,7 +7167,7 @@
         <v>20.5</v>
       </c>
       <c r="H195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I195">
         <v>2</v>
@@ -7184,10 +7184,10 @@
         <v>2.5</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196">
         <v>22</v>
@@ -7200,7 +7200,7 @@
         <v>19.5</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I196">
         <v>2</v>
@@ -7217,10 +7217,10 @@
         <v>2.5</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E197">
         <v>22</v>
@@ -7233,7 +7233,7 @@
         <v>19.5</v>
       </c>
       <c r="H197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I197">
         <v>2</v>
@@ -7250,10 +7250,10 @@
         <v>2.5</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E198">
         <v>23</v>
@@ -7266,7 +7266,7 @@
         <v>20.5</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -7283,10 +7283,10 @@
         <v>2.5</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E199">
         <v>22</v>
@@ -7299,7 +7299,7 @@
         <v>19.5</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -7316,10 +7316,10 @@
         <v>2.5</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>22</v>
@@ -7332,7 +7332,7 @@
         <v>19.5</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -7349,10 +7349,10 @@
         <v>2.5</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E201">
         <v>23</v>
@@ -7365,7 +7365,7 @@
         <v>20.5</v>
       </c>
       <c r="H201" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -7382,10 +7382,10 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202">
         <v>20</v>
@@ -7398,7 +7398,7 @@
         <v>20</v>
       </c>
       <c r="H202" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I202">
         <v>3</v>
@@ -7416,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203">
         <v>20</v>
@@ -7432,7 +7432,7 @@
         <v>20</v>
       </c>
       <c r="H203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I203">
         <v>3</v>
@@ -7450,10 +7450,10 @@
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E204">
         <v>16</v>
@@ -7466,7 +7466,7 @@
         <v>16</v>
       </c>
       <c r="H204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I204">
         <v>3</v>
@@ -7484,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E205">
         <v>20</v>
@@ -7500,7 +7500,7 @@
         <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I205">
         <v>3</v>
@@ -7518,10 +7518,10 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E206">
         <v>20</v>
@@ -7534,7 +7534,7 @@
         <v>20</v>
       </c>
       <c r="H206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I206">
         <v>3</v>
@@ -7552,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E207">
         <v>20</v>
@@ -7568,7 +7568,7 @@
         <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I207">
         <v>3</v>
@@ -7586,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E208">
         <v>20</v>
@@ -7602,7 +7602,7 @@
         <v>20</v>
       </c>
       <c r="H208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I208">
         <v>3</v>
@@ -7620,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E209">
         <v>16</v>
@@ -7636,7 +7636,7 @@
         <v>16</v>
       </c>
       <c r="H209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I209">
         <v>3</v>
@@ -7654,10 +7654,10 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210">
         <v>20</v>
@@ -7670,7 +7670,7 @@
         <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I210">
         <v>3</v>
@@ -7688,10 +7688,10 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E211">
         <v>20</v>
@@ -7704,7 +7704,7 @@
         <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I211">
         <v>3</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E212">
         <v>21</v>
@@ -7738,7 +7738,7 @@
         <v>21</v>
       </c>
       <c r="H212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I212">
         <v>3</v>
@@ -7756,10 +7756,10 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E213">
         <v>21</v>
@@ -7772,7 +7772,7 @@
         <v>21</v>
       </c>
       <c r="H213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I213">
         <v>3</v>
@@ -7790,10 +7790,10 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E214">
         <v>20</v>
@@ -7806,7 +7806,7 @@
         <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I214">
         <v>3</v>
@@ -7824,10 +7824,10 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E215">
         <v>19</v>
@@ -7840,7 +7840,7 @@
         <v>19</v>
       </c>
       <c r="H215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I215">
         <v>3</v>
@@ -7858,10 +7858,10 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216">
         <v>20</v>
@@ -7874,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="H216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I216">
         <v>3</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E217">
         <v>22</v>
@@ -7908,7 +7908,7 @@
         <v>22</v>
       </c>
       <c r="H217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I217">
         <v>3</v>
@@ -7926,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E218">
         <v>20</v>
@@ -7942,7 +7942,7 @@
         <v>20</v>
       </c>
       <c r="H218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I218">
         <v>3</v>
@@ -7960,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E219">
         <v>20</v>
@@ -7976,7 +7976,7 @@
         <v>20</v>
       </c>
       <c r="H219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I219">
         <v>3</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E220">
         <v>20</v>
@@ -8010,7 +8010,7 @@
         <v>20</v>
       </c>
       <c r="H220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I220">
         <v>3</v>
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E221">
         <v>20</v>
@@ -8044,7 +8044,7 @@
         <v>20</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I221">
         <v>3</v>
@@ -8062,10 +8062,10 @@
         <v>0.75</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E222">
         <v>20</v>
@@ -8078,7 +8078,7 @@
         <v>19.25</v>
       </c>
       <c r="H222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I222">
         <v>4</v>
@@ -8096,10 +8096,10 @@
         <v>0.75</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223">
         <v>22</v>
@@ -8112,7 +8112,7 @@
         <v>21.25</v>
       </c>
       <c r="H223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I223">
         <v>4</v>
@@ -8130,10 +8130,10 @@
         <v>0.75</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E224">
         <v>21</v>
@@ -8146,7 +8146,7 @@
         <v>20.25</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I224">
         <v>4</v>
@@ -8164,10 +8164,10 @@
         <v>0.75</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E225">
         <v>19</v>
@@ -8180,7 +8180,7 @@
         <v>18.25</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I225">
         <v>4</v>
@@ -8198,10 +8198,10 @@
         <v>0.75</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E226">
         <v>18</v>
@@ -8214,7 +8214,7 @@
         <v>17.25</v>
       </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -8232,10 +8232,10 @@
         <v>0.75</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E227">
         <v>20</v>
@@ -8248,7 +8248,7 @@
         <v>19.25</v>
       </c>
       <c r="H227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I227">
         <v>4</v>
@@ -8266,10 +8266,10 @@
         <v>0.75</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E228">
         <v>22</v>
@@ -8282,7 +8282,7 @@
         <v>21.25</v>
       </c>
       <c r="H228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -8300,10 +8300,10 @@
         <v>0.75</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E229">
         <v>21</v>
@@ -8316,7 +8316,7 @@
         <v>20.25</v>
       </c>
       <c r="H229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I229">
         <v>4</v>
@@ -8334,10 +8334,10 @@
         <v>0.75</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230">
         <v>19</v>
@@ -8350,7 +8350,7 @@
         <v>18.25</v>
       </c>
       <c r="H230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I230">
         <v>4</v>
@@ -8368,10 +8368,10 @@
         <v>0.75</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E231">
         <v>18</v>
@@ -8384,7 +8384,7 @@
         <v>17.25</v>
       </c>
       <c r="H231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I231">
         <v>4</v>
@@ -8402,10 +8402,10 @@
         <v>0.75</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E232">
         <v>21</v>
@@ -8418,7 +8418,7 @@
         <v>20.25</v>
       </c>
       <c r="H232" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I232">
         <v>4</v>
@@ -8436,10 +8436,10 @@
         <v>0.75</v>
       </c>
       <c r="C233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E233">
         <v>20</v>
@@ -8452,7 +8452,7 @@
         <v>19.25</v>
       </c>
       <c r="H233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I233">
         <v>4</v>
@@ -8470,10 +8470,10 @@
         <v>0.75</v>
       </c>
       <c r="C234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E234">
         <v>21</v>
@@ -8486,7 +8486,7 @@
         <v>20.25</v>
       </c>
       <c r="H234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I234">
         <v>4</v>
@@ -8504,10 +8504,10 @@
         <v>0.75</v>
       </c>
       <c r="C235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235">
         <v>21</v>
@@ -8520,7 +8520,7 @@
         <v>20.25</v>
       </c>
       <c r="H235" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I235">
         <v>4</v>
@@ -8538,10 +8538,10 @@
         <v>0.75</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E236">
         <v>21</v>
@@ -8554,7 +8554,7 @@
         <v>20.25</v>
       </c>
       <c r="H236" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I236">
         <v>4</v>
@@ -8572,10 +8572,10 @@
         <v>0.75</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E237">
         <v>20</v>
@@ -8588,7 +8588,7 @@
         <v>19.25</v>
       </c>
       <c r="H237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I237">
         <v>4</v>
@@ -8606,10 +8606,10 @@
         <v>0.75</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E238">
         <v>21</v>
@@ -8622,7 +8622,7 @@
         <v>20.25</v>
       </c>
       <c r="H238" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I238">
         <v>4</v>
@@ -8640,10 +8640,10 @@
         <v>0.75</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E239">
         <v>20</v>
@@ -8656,7 +8656,7 @@
         <v>19.25</v>
       </c>
       <c r="H239" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -8674,10 +8674,10 @@
         <v>0.75</v>
       </c>
       <c r="C240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E240">
         <v>20</v>
@@ -8690,7 +8690,7 @@
         <v>19.25</v>
       </c>
       <c r="H240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I240">
         <v>4</v>
@@ -8708,10 +8708,10 @@
         <v>0.75</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E241">
         <v>22</v>
@@ -8724,7 +8724,7 @@
         <v>21.25</v>
       </c>
       <c r="H241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -8742,10 +8742,10 @@
         <v>0.25</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E242">
         <v>22</v>
@@ -8758,7 +8758,7 @@
         <v>21.75</v>
       </c>
       <c r="H242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I242">
         <v>5</v>
@@ -8776,10 +8776,10 @@
         <v>0.25</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E243">
         <v>22</v>
@@ -8792,7 +8792,7 @@
         <v>21.75</v>
       </c>
       <c r="H243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I243">
         <v>5</v>
@@ -8810,10 +8810,10 @@
         <v>0.25</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E244">
         <v>20</v>
@@ -8826,7 +8826,7 @@
         <v>19.75</v>
       </c>
       <c r="H244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I244">
         <v>5</v>
@@ -8844,10 +8844,10 @@
         <v>0.25</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E245">
         <v>21</v>
@@ -8860,7 +8860,7 @@
         <v>20.75</v>
       </c>
       <c r="H245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I245">
         <v>5</v>
@@ -8878,10 +8878,10 @@
         <v>0.25</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E246">
         <v>19</v>
@@ -8894,7 +8894,7 @@
         <v>18.75</v>
       </c>
       <c r="H246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I246">
         <v>5</v>
@@ -8912,10 +8912,10 @@
         <v>0.25</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E247">
         <v>22</v>
@@ -8928,7 +8928,7 @@
         <v>21.75</v>
       </c>
       <c r="H247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I247">
         <v>5</v>
@@ -8946,10 +8946,10 @@
         <v>0.25</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E248">
         <v>22</v>
@@ -8962,7 +8962,7 @@
         <v>21.75</v>
       </c>
       <c r="H248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I248">
         <v>5</v>
@@ -8980,10 +8980,10 @@
         <v>0.25</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E249">
         <v>20</v>
@@ -8996,7 +8996,7 @@
         <v>19.75</v>
       </c>
       <c r="H249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I249">
         <v>5</v>
@@ -9014,10 +9014,10 @@
         <v>0.25</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E250">
         <v>21</v>
@@ -9030,7 +9030,7 @@
         <v>20.75</v>
       </c>
       <c r="H250" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I250">
         <v>5</v>
@@ -9048,10 +9048,10 @@
         <v>0.25</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E251">
         <v>19</v>
@@ -9064,7 +9064,7 @@
         <v>18.75</v>
       </c>
       <c r="H251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I251">
         <v>5</v>
@@ -9082,10 +9082,10 @@
         <v>0.25</v>
       </c>
       <c r="C252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E252">
         <v>20</v>
@@ -9098,7 +9098,7 @@
         <v>19.75</v>
       </c>
       <c r="H252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I252">
         <v>5</v>
@@ -9116,10 +9116,10 @@
         <v>0.25</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E253">
         <v>21</v>
@@ -9132,7 +9132,7 @@
         <v>20.75</v>
       </c>
       <c r="H253" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I253">
         <v>5</v>
@@ -9150,10 +9150,10 @@
         <v>0.25</v>
       </c>
       <c r="C254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E254">
         <v>21</v>
@@ -9166,7 +9166,7 @@
         <v>20.75</v>
       </c>
       <c r="H254" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I254">
         <v>5</v>
@@ -9184,10 +9184,10 @@
         <v>0.25</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E255">
         <v>20</v>
@@ -9200,7 +9200,7 @@
         <v>19.75</v>
       </c>
       <c r="H255" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I255">
         <v>5</v>
@@ -9218,10 +9218,10 @@
         <v>0.25</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E256">
         <v>20</v>
@@ -9234,7 +9234,7 @@
         <v>19.75</v>
       </c>
       <c r="H256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I256">
         <v>5</v>
@@ -9252,10 +9252,10 @@
         <v>0.25</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E257">
         <v>20</v>
@@ -9268,7 +9268,7 @@
         <v>19.75</v>
       </c>
       <c r="H257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I257">
         <v>5</v>
@@ -9286,10 +9286,10 @@
         <v>0.25</v>
       </c>
       <c r="C258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E258">
         <v>21</v>
@@ -9302,7 +9302,7 @@
         <v>20.75</v>
       </c>
       <c r="H258" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I258">
         <v>5</v>
@@ -9320,10 +9320,10 @@
         <v>0.25</v>
       </c>
       <c r="C259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E259">
         <v>21</v>
@@ -9336,7 +9336,7 @@
         <v>20.75</v>
       </c>
       <c r="H259" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I259">
         <v>5</v>
@@ -9354,10 +9354,10 @@
         <v>0.25</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E260">
         <v>20</v>
@@ -9370,7 +9370,7 @@
         <v>19.75</v>
       </c>
       <c r="H260" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I260">
         <v>5</v>
@@ -9388,10 +9388,10 @@
         <v>0.25</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E261">
         <v>20</v>
@@ -9404,7 +9404,7 @@
         <v>19.75</v>
       </c>
       <c r="H261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I261">
         <v>5</v>
@@ -9422,10 +9422,10 @@
         <v>1.25</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E262">
         <v>21</v>
@@ -9438,7 +9438,7 @@
         <v>19.75</v>
       </c>
       <c r="H262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I262">
         <v>6</v>
@@ -9456,10 +9456,10 @@
         <v>1.25</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E263">
         <v>20</v>
@@ -9472,7 +9472,7 @@
         <v>18.75</v>
       </c>
       <c r="H263" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I263">
         <v>6</v>
@@ -9490,10 +9490,10 @@
         <v>1.25</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E264">
         <v>20</v>
@@ -9506,7 +9506,7 @@
         <v>18.75</v>
       </c>
       <c r="H264" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I264">
         <v>6</v>
@@ -9524,10 +9524,10 @@
         <v>1.25</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E265">
         <v>21</v>
@@ -9540,7 +9540,7 @@
         <v>19.75</v>
       </c>
       <c r="H265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -9558,10 +9558,10 @@
         <v>1.25</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E266">
         <v>21</v>
@@ -9574,7 +9574,7 @@
         <v>19.75</v>
       </c>
       <c r="H266" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -9592,10 +9592,10 @@
         <v>1.25</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E267">
         <v>23</v>
@@ -9608,7 +9608,7 @@
         <v>21.75</v>
       </c>
       <c r="H267" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I267">
         <v>6</v>
@@ -9626,10 +9626,10 @@
         <v>1.25</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E268">
         <v>21</v>
@@ -9642,7 +9642,7 @@
         <v>19.75</v>
       </c>
       <c r="H268" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I268">
         <v>6</v>
@@ -9660,10 +9660,10 @@
         <v>1.25</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E269">
         <v>20</v>
@@ -9676,7 +9676,7 @@
         <v>18.75</v>
       </c>
       <c r="H269" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I269">
         <v>6</v>
@@ -9694,10 +9694,10 @@
         <v>1.25</v>
       </c>
       <c r="C270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E270">
         <v>21</v>
@@ -9710,7 +9710,7 @@
         <v>19.75</v>
       </c>
       <c r="H270" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I270">
         <v>6</v>
@@ -9728,10 +9728,10 @@
         <v>1.25</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E271">
         <v>20</v>
@@ -9744,7 +9744,7 @@
         <v>18.75</v>
       </c>
       <c r="H271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I271">
         <v>6</v>
@@ -9762,10 +9762,10 @@
         <v>1.25</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E272">
         <v>21</v>
@@ -9778,7 +9778,7 @@
         <v>19.75</v>
       </c>
       <c r="H272" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I272">
         <v>6</v>
@@ -9796,10 +9796,10 @@
         <v>1.25</v>
       </c>
       <c r="C273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E273">
         <v>20</v>
@@ -9812,7 +9812,7 @@
         <v>18.75</v>
       </c>
       <c r="H273" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I273">
         <v>6</v>
@@ -9830,10 +9830,10 @@
         <v>1.25</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E274">
         <v>20</v>
@@ -9846,7 +9846,7 @@
         <v>18.75</v>
       </c>
       <c r="H274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I274">
         <v>6</v>
@@ -9864,10 +9864,10 @@
         <v>1.25</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E275">
         <v>21</v>
@@ -9880,7 +9880,7 @@
         <v>19.75</v>
       </c>
       <c r="H275" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -9898,10 +9898,10 @@
         <v>1.25</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E276">
         <v>21</v>
@@ -9914,7 +9914,7 @@
         <v>19.75</v>
       </c>
       <c r="H276" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I276">
         <v>6</v>
@@ -9932,10 +9932,10 @@
         <v>1.25</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E277">
         <v>23</v>
@@ -9948,7 +9948,7 @@
         <v>21.75</v>
       </c>
       <c r="H277" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I277">
         <v>6</v>
@@ -9966,10 +9966,10 @@
         <v>1.25</v>
       </c>
       <c r="C278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E278">
         <v>21</v>
@@ -9982,7 +9982,7 @@
         <v>19.75</v>
       </c>
       <c r="H278" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I278">
         <v>6</v>
@@ -10000,10 +10000,10 @@
         <v>1.25</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E279">
         <v>20</v>
@@ -10016,7 +10016,7 @@
         <v>18.75</v>
       </c>
       <c r="H279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I279">
         <v>6</v>
@@ -10034,10 +10034,10 @@
         <v>1.25</v>
       </c>
       <c r="C280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E280">
         <v>21</v>
@@ -10050,7 +10050,7 @@
         <v>19.75</v>
       </c>
       <c r="H280" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I280">
         <v>6</v>
@@ -10068,10 +10068,10 @@
         <v>1.25</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E281">
         <v>20</v>
@@ -10084,7 +10084,7 @@
         <v>18.75</v>
       </c>
       <c r="H281" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I281">
         <v>6</v>
@@ -10102,10 +10102,10 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E282">
         <v>20</v>
@@ -10118,7 +10118,7 @@
         <v>19</v>
       </c>
       <c r="H282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I282">
         <v>7</v>
@@ -10136,10 +10136,10 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E283">
         <v>20</v>
@@ -10152,7 +10152,7 @@
         <v>19</v>
       </c>
       <c r="H283" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I283">
         <v>7</v>
@@ -10170,10 +10170,10 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E284">
         <v>19</v>
@@ -10186,7 +10186,7 @@
         <v>18</v>
       </c>
       <c r="H284" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I284">
         <v>7</v>
@@ -10204,10 +10204,10 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E285">
         <v>20</v>
@@ -10220,7 +10220,7 @@
         <v>19</v>
       </c>
       <c r="H285" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I285">
         <v>7</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E286">
         <v>19</v>
@@ -10254,7 +10254,7 @@
         <v>18</v>
       </c>
       <c r="H286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I286">
         <v>7</v>
@@ -10272,10 +10272,10 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E287">
         <v>21</v>
@@ -10288,7 +10288,7 @@
         <v>20</v>
       </c>
       <c r="H287" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I287">
         <v>7</v>
@@ -10306,10 +10306,10 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D288" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E288">
         <v>19</v>
@@ -10322,7 +10322,7 @@
         <v>18</v>
       </c>
       <c r="H288" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I288">
         <v>7</v>
@@ -10340,10 +10340,10 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E289">
         <v>20</v>
@@ -10356,7 +10356,7 @@
         <v>19</v>
       </c>
       <c r="H289" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I289">
         <v>7</v>
@@ -10374,10 +10374,10 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E290">
         <v>20</v>
@@ -10390,7 +10390,7 @@
         <v>19</v>
       </c>
       <c r="H290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I290">
         <v>7</v>
@@ -10408,10 +10408,10 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E291">
         <v>20</v>
@@ -10424,7 +10424,7 @@
         <v>19</v>
       </c>
       <c r="H291" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I291">
         <v>7</v>
@@ -10442,10 +10442,10 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E292">
         <v>22</v>
@@ -10458,7 +10458,7 @@
         <v>21</v>
       </c>
       <c r="H292" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I292">
         <v>7</v>
@@ -10476,10 +10476,10 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D293" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E293">
         <v>20</v>
@@ -10492,7 +10492,7 @@
         <v>19</v>
       </c>
       <c r="H293" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I293">
         <v>7</v>
@@ -10510,10 +10510,10 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E294">
         <v>19</v>
@@ -10526,7 +10526,7 @@
         <v>18</v>
       </c>
       <c r="H294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I294">
         <v>7</v>
@@ -10544,10 +10544,10 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E295">
         <v>21</v>
@@ -10560,7 +10560,7 @@
         <v>20</v>
       </c>
       <c r="H295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I295">
         <v>7</v>
@@ -10578,10 +10578,10 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E296">
         <v>22</v>
@@ -10594,7 +10594,7 @@
         <v>21</v>
       </c>
       <c r="H296" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I296">
         <v>7</v>
@@ -10612,10 +10612,10 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E297">
         <v>22</v>
@@ -10628,7 +10628,7 @@
         <v>21</v>
       </c>
       <c r="H297" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I297">
         <v>7</v>
@@ -10646,10 +10646,10 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E298">
         <v>20</v>
@@ -10662,7 +10662,7 @@
         <v>19</v>
       </c>
       <c r="H298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I298">
         <v>7</v>
@@ -10680,10 +10680,10 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D299" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E299">
         <v>19</v>
@@ -10696,7 +10696,7 @@
         <v>18</v>
       </c>
       <c r="H299" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I299">
         <v>7</v>
@@ -10714,10 +10714,10 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D300" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E300">
         <v>21</v>
@@ -10730,7 +10730,7 @@
         <v>20</v>
       </c>
       <c r="H300" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I300">
         <v>7</v>
@@ -10748,10 +10748,10 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E301">
         <v>22</v>
@@ -10764,7 +10764,7 @@
         <v>21</v>
       </c>
       <c r="H301" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I301">
         <v>7</v>
@@ -10782,10 +10782,10 @@
         <v>1.5</v>
       </c>
       <c r="C302" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D302" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E302">
         <v>20</v>
@@ -10798,7 +10798,7 @@
         <v>18.5</v>
       </c>
       <c r="H302" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I302">
         <v>8</v>
@@ -10816,10 +10816,10 @@
         <v>1.5</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E303">
         <v>20</v>
@@ -10832,7 +10832,7 @@
         <v>18.5</v>
       </c>
       <c r="H303" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I303">
         <v>8</v>
@@ -10850,10 +10850,10 @@
         <v>1.5</v>
       </c>
       <c r="C304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E304">
         <v>20</v>
@@ -10866,7 +10866,7 @@
         <v>18.5</v>
       </c>
       <c r="H304" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I304">
         <v>8</v>
@@ -10884,10 +10884,10 @@
         <v>1.5</v>
       </c>
       <c r="C305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E305">
         <v>20</v>
@@ -10900,7 +10900,7 @@
         <v>18.5</v>
       </c>
       <c r="H305" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I305">
         <v>8</v>
@@ -10918,10 +10918,10 @@
         <v>1.5</v>
       </c>
       <c r="C306" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D306" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E306">
         <v>20</v>
@@ -10934,7 +10934,7 @@
         <v>18.5</v>
       </c>
       <c r="H306" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I306">
         <v>8</v>
@@ -10952,10 +10952,10 @@
         <v>1.5</v>
       </c>
       <c r="C307" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E307">
         <v>21</v>
@@ -10968,7 +10968,7 @@
         <v>19.5</v>
       </c>
       <c r="H307" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I307">
         <v>8</v>
@@ -10986,10 +10986,10 @@
         <v>1.5</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D308" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E308">
         <v>20</v>
@@ -11002,7 +11002,7 @@
         <v>18.5</v>
       </c>
       <c r="H308" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I308">
         <v>8</v>
@@ -11020,10 +11020,10 @@
         <v>1.5</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E309">
         <v>20</v>
@@ -11036,7 +11036,7 @@
         <v>18.5</v>
       </c>
       <c r="H309" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I309">
         <v>8</v>
@@ -11054,10 +11054,10 @@
         <v>1.5</v>
       </c>
       <c r="C310" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D310" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E310">
         <v>19</v>
@@ -11070,7 +11070,7 @@
         <v>17.5</v>
       </c>
       <c r="H310" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I310">
         <v>8</v>
@@ -11088,10 +11088,10 @@
         <v>1.5</v>
       </c>
       <c r="C311" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E311">
         <v>20</v>
@@ -11104,7 +11104,7 @@
         <v>18.5</v>
       </c>
       <c r="H311" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I311">
         <v>8</v>
@@ -11122,10 +11122,10 @@
         <v>1.5</v>
       </c>
       <c r="C312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E312">
         <v>21</v>
@@ -11138,7 +11138,7 @@
         <v>19.5</v>
       </c>
       <c r="H312" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -11156,10 +11156,10 @@
         <v>1.5</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D313" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E313">
         <v>20</v>
@@ -11172,7 +11172,7 @@
         <v>18.5</v>
       </c>
       <c r="H313" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I313">
         <v>8</v>
@@ -11190,10 +11190,10 @@
         <v>1.5</v>
       </c>
       <c r="C314" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E314">
         <v>19</v>
@@ -11206,7 +11206,7 @@
         <v>17.5</v>
       </c>
       <c r="H314" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -11224,10 +11224,10 @@
         <v>1.5</v>
       </c>
       <c r="C315" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E315">
         <v>22</v>
@@ -11240,7 +11240,7 @@
         <v>20.5</v>
       </c>
       <c r="H315" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I315">
         <v>8</v>
@@ -11258,10 +11258,10 @@
         <v>1.5</v>
       </c>
       <c r="C316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D316" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E316">
         <v>24</v>
@@ -11274,7 +11274,7 @@
         <v>22.5</v>
       </c>
       <c r="H316" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I316">
         <v>8</v>
@@ -11292,10 +11292,10 @@
         <v>1.5</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E317">
         <v>21</v>
@@ -11308,7 +11308,7 @@
         <v>19.5</v>
       </c>
       <c r="H317" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I317">
         <v>8</v>
@@ -11326,10 +11326,10 @@
         <v>1.5</v>
       </c>
       <c r="C318" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D318" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E318">
         <v>20</v>
@@ -11342,7 +11342,7 @@
         <v>18.5</v>
       </c>
       <c r="H318" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I318">
         <v>8</v>
@@ -11360,10 +11360,10 @@
         <v>1.5</v>
       </c>
       <c r="C319" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E319">
         <v>19</v>
@@ -11376,7 +11376,7 @@
         <v>17.5</v>
       </c>
       <c r="H319" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -11394,10 +11394,10 @@
         <v>1.5</v>
       </c>
       <c r="C320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D320" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E320">
         <v>22</v>
@@ -11410,7 +11410,7 @@
         <v>20.5</v>
       </c>
       <c r="H320" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I320">
         <v>8</v>
@@ -11428,10 +11428,10 @@
         <v>1.5</v>
       </c>
       <c r="C321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E321">
         <v>24</v>
@@ -11444,7 +11444,7 @@
         <v>22.5</v>
       </c>
       <c r="H321" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I321">
         <v>8</v>
@@ -11483,25 +11483,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -11509,7 +11509,7 @@
         <v>45673</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -11518,10 +11518,10 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -11529,7 +11529,7 @@
         <v>45687</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>41</v>
@@ -11538,10 +11538,10 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11549,7 +11549,7 @@
         <v>45700</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -11558,13 +11558,13 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -11572,7 +11572,7 @@
         <v>45714</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -11581,13 +11581,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -11595,7 +11595,7 @@
         <v>45728</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>41</v>
@@ -11604,13 +11604,13 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -11618,7 +11618,7 @@
         <v>45742</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -11627,10 +11627,10 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -11638,22 +11638,22 @@
         <v>45757</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>46</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -11661,27 +11661,27 @@
         <v>45773</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
